--- a/Data/Veg002.xlsx
+++ b/Data/Veg002.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1480" windowWidth="25520" windowHeight="12620" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24860" windowHeight="12440" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Species" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>SN</t>
   </si>
@@ -179,17 +180,160 @@
     <t>OBL</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/database/feis/plants/vine/toxdiv/all.html</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/database/feis/plants/shrub/adefas/all.html; (Hellmers et al., 1955)</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/database/feis/plants/shrub/bacpil/all.html</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/database/feis/plants/shrub/hetarb/all.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Hellmers et al., 1955)</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/database/feis/plants/shrub/mallau/all.html</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/database/feis/plants/forb/ambpsi/all.html</t>
+  </si>
+  <si>
+    <t>8.5-10</t>
+  </si>
+  <si>
+    <t>10-13.2</t>
+  </si>
+  <si>
+    <t>0.9-1.8</t>
+  </si>
+  <si>
+    <t>deep-rooted</t>
+  </si>
+  <si>
+    <t>shallow-rooted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually occurs in non-wetlands (1-33% probability) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falcultative-Upland: </t>
+  </si>
+  <si>
+    <t>Facultative-Wetland:</t>
+  </si>
+  <si>
+    <t>Usually occurs in wetlands (67-99% probability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obligate Wetland: </t>
+  </si>
+  <si>
+    <t>Almost always occurs in wetlands (&gt;99% probability)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Root-Deep (m)</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wetland Status from Arid west 2016 regional wetland plant list </t>
+  </si>
+  <si>
+    <t>Upland:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH </t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perennial vine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual herb </t>
+  </si>
+  <si>
+    <t>Perennial herb</t>
+  </si>
+  <si>
+    <t>Perennial grass</t>
+  </si>
+  <si>
+    <t>annual grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species with root depths greater than 2 meters </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="TimesNewRomanPSMT"/>
       <family val="2"/>
     </font>
@@ -211,14 +355,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,23 +651,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,374 +680,729 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>